--- a/biology/Médecine/Sirtuine_3/Sirtuine_3.xlsx
+++ b/biology/Médecine/Sirtuine_3/Sirtuine_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La sirtuine 3 est une protéine faisant partie de la classe des sirtuines ayant une fonction d'histone désacétylase. Son gène est le SIRT3 situé sur le chromosome 11 humain.
@@ -512,10 +524,12 @@
           <t>Structure et rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans les mitochondries[2]. Il active à ce niveau le LRP130, et par ce biais, la phosphorylation oxydative dans les hépatocytes[3]. Il augmente le taux cellulaire de NADPH, ce qui contribue à une protection contre le stress oxydatif[3]. Il agit également sur le FOXO3[4], le SOD2[5] et le IDH2[6] en les désacétylant pour parvenir au même résultat.
-Son expression est diminué par le microARN 195[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans les mitochondries. Il active à ce niveau le LRP130, et par ce biais, la phosphorylation oxydative dans les hépatocytes. Il augmente le taux cellulaire de NADPH, ce qui contribue à une protection contre le stress oxydatif. Il agit également sur le FOXO3, le SOD2 et le IDH2 en les désacétylant pour parvenir au même résultat.
+Son expression est diminué par le microARN 195.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un déficit en sirtuine 3 pourrait contribuer à la survenue d'un syndrome métabolique[8]. De même, une activité réduite de cet enzyme a été retrouvé chez des patients porteurs d'une hypertension artérielle pulmonaire[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déficit en sirtuine 3 pourrait contribuer à la survenue d'un syndrome métabolique. De même, une activité réduite de cet enzyme a été retrouvé chez des patients porteurs d'une hypertension artérielle pulmonaire.
 </t>
         </is>
       </c>
